--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Base_Rate/BaseRates_Files_27DEC2019/TL_Transformed_Data_BaseRate.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Base_Rate/BaseRates_Files_27DEC2019/TL_Transformed_Data_BaseRate.xlsx
@@ -387,7 +387,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
@@ -504,135 +504,60 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>null</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>0.8496</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>null</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2019-12-16</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2019-12-04</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>001M</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>DEPOSIT</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>COMRLENDING</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001M</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>DEPOSIT</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>COMRLENDING</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
       <c r="O2" t="inlineStr">
-        <is>
-          <t>AUD,EUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>BANKBILL</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2019-12-04</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>003M</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>DEPOSIT</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>COMRLENDING</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
         <is>
           <t>AUD,EUR</t>
         </is>

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Base_Rate/BaseRates_Files_27DEC2019/TL_Transformed_Data_BaseRate.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Base_Rate/BaseRates_Files_27DEC2019/TL_Transformed_Data_BaseRate.xlsx
@@ -1,42 +1,124 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\Transformation_Layer\TL_Base_Rate\BaseRates_Files_27DEC2019\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB22759-6B0B-4B51-8F17-E21D7ECAFA9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transformed_BaseRate" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Transformed_BaseRate" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+  <si>
+    <t>rowid</t>
+  </si>
+  <si>
+    <t>baseRateCode</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>buyRate</t>
+  </si>
+  <si>
+    <t>midRate</t>
+  </si>
+  <si>
+    <t>sellRate</t>
+  </si>
+  <si>
+    <t>lastRate</t>
+  </si>
+  <si>
+    <t>rateEffectiveDate</t>
+  </si>
+  <si>
+    <t>spreadRate</t>
+  </si>
+  <si>
+    <t>spreadEffectiveDate</t>
+  </si>
+  <si>
+    <t>rateTenor</t>
+  </si>
+  <si>
+    <t>instrumentType</t>
+  </si>
+  <si>
+    <t>lineOfBusiness</t>
+  </si>
+  <si>
+    <t>businessEntityName</t>
+  </si>
+  <si>
+    <t>subEntity</t>
+  </si>
+  <si>
+    <t>BANKBILL</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>DEPOSIT</t>
+  </si>
+  <si>
+    <t>COMRLENDING</t>
+  </si>
+  <si>
+    <t>AUD,EUR</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>2019-11-08</t>
+  </si>
+  <si>
+    <t>002M</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
-      <sz val="10"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,20 +151,29 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -382,190 +473,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="8.85546875" customWidth="1" style="2" min="1" max="1"/>
-    <col width="13.140625" customWidth="1" style="3" min="2" max="2"/>
-    <col width="8.28515625" customWidth="1" style="3" min="3" max="3"/>
-    <col width="8" customWidth="1" style="3" min="4" max="5"/>
-    <col width="7.42578125" customWidth="1" style="3" min="6" max="6"/>
-    <col width="7.7109375" customWidth="1" style="3" min="7" max="7"/>
-    <col width="15.7109375" customWidth="1" style="3" min="8" max="8"/>
-    <col width="10.42578125" customWidth="1" style="3" min="9" max="9"/>
-    <col width="18.140625" customWidth="1" style="3" min="10" max="10"/>
-    <col width="9.28515625" customWidth="1" style="3" min="11" max="11"/>
-    <col width="14.42578125" customWidth="1" style="3" min="12" max="12"/>
-    <col width="14.28515625" customWidth="1" style="3" min="13" max="13"/>
-    <col width="18.28515625" customWidth="1" style="3" min="14" max="14"/>
-    <col width="8.85546875" customWidth="1" style="2" min="15" max="16384"/>
+    <col min="1" max="1" width="8.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="8" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>rowid</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>baseRateCode</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>currency</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>buyRate</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>midRate</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>sellRate</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>lastRate</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>rateEffectiveDate</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>spreadRate</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>spreadEffectiveDate</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>rateTenor</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>instrumentType</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>lineOfBusiness</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>businessEntityName</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>subEntity</t>
-        </is>
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BANKBILL</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.8496</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2019-12-16</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001M</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>DEPOSIT</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>COMRLENDING</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>AUD,EUR</t>
-        </is>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" pageOrder="overThenDown" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Base_Rate/BaseRates_Files_27DEC2019/TL_Transformed_Data_BaseRate.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Base_Rate/BaseRates_Files_27DEC2019/TL_Transformed_Data_BaseRate.xlsx
@@ -83,6 +83,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -504,14 +572,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>null</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.8496</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>null</t>
@@ -524,7 +592,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2020-11-25</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -539,7 +607,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>001M</t>
+          <t>003M</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">

--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Base_Rate/BaseRates_Files_27DEC2019/TL_Transformed_Data_BaseRate.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Base_Rate/BaseRates_Files_27DEC2019/TL_Transformed_Data_BaseRate.xlsx
@@ -83,74 +83,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -455,7 +387,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
@@ -572,7 +504,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -592,7 +524,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-11-25</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -607,25 +539,100 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>001M</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>DEPOSIT</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>COMRLENDING</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>AUD,EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BANKBILL</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2019-12-30</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>003M</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>DEPOSIT</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>COMRLENDING</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>AUD,EUR</t>
         </is>
